--- a/data/case1/15/Plm1_13.xlsx
+++ b/data/case1/15/Plm1_13.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.039677441667350877</v>
+        <v>-0.089251970589998564</v>
       </c>
       <c r="B1" s="0">
-        <v>0.039592264435427182</v>
+        <v>0.089114655418271127</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.017841969392208057</v>
+        <v>-0.043002458637099394</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.018194566373457732</v>
+        <v>0.042599625591327239</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.12112494093047488</v>
+        <v>0.083884798420214679</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.12153136705484613</v>
+        <v>-0.084169029274082874</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.16246475828030071</v>
+        <v>-0.19982870760748384</v>
       </c>
       <c r="B4" s="0">
-        <v>0.16178490372844223</v>
+        <v>0.19877364848234791</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.15578490387994393</v>
+        <v>-0.19277364863028534</v>
       </c>
       <c r="B5" s="0">
-        <v>0.15443451153171051</v>
+        <v>0.19064673046009162</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.049653780502335376</v>
+        <v>-0.097522026047394572</v>
       </c>
       <c r="B6" s="0">
-        <v>0.049622728194548049</v>
+        <v>0.097391070564234905</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.029622728384767427</v>
+        <v>-0.077391070743722423</v>
       </c>
       <c r="B7" s="0">
-        <v>0.029582959668141839</v>
+        <v>0.077084055581940092</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0095829598591237186</v>
+        <v>-0.057084055763161778</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0095714495609300343</v>
+        <v>0.0568481813695767</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0035714497189092143</v>
+        <v>-0.050848181527304526</v>
       </c>
       <c r="B9" s="0">
-        <v>0.0035623632948817985</v>
+        <v>0.050657755370664859</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0024376365470004657</v>
+        <v>-0.044657755530209897</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.0024378160995723874</v>
+        <v>0.044631134549334206</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0069378159450863564</v>
+        <v>-0.049213311419116224</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.0069444386465349339</v>
+        <v>0.049148489689891051</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.045383021316728556</v>
+        <v>-0.043148489850041383</v>
       </c>
       <c r="B12" s="0">
-        <v>0.045147156387444376</v>
+        <v>0.042954381331511193</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.03914715654818135</v>
+        <v>-0.036954381493888633</v>
       </c>
       <c r="B13" s="0">
-        <v>0.03908279022558947</v>
+        <v>0.036902641721296092</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027082790401451007</v>
+        <v>-0.024902641895308442</v>
       </c>
       <c r="B14" s="0">
-        <v>0.027051481166648017</v>
+        <v>0.02487769319472477</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021051481328817623</v>
+        <v>-0.021053756914719557</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021026818239478828</v>
+        <v>0.021027982008358315</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015026818402224862</v>
+        <v>-0.015027982172391763</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004509684856338</v>
+        <v>0.015004746394037927</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090045098483484409</v>
+        <v>-0.0090047465587250741</v>
       </c>
       <c r="B17" s="0">
-        <v>0.008999999829144123</v>
+        <v>0.0089999998296708128</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.04743423398801383</v>
+        <v>-0.036112196934027452</v>
       </c>
       <c r="B18" s="0">
-        <v>0.047412054484631483</v>
+        <v>0.036097023388052207</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.038412054642937843</v>
+        <v>-0.027097023539131904</v>
       </c>
       <c r="B19" s="0">
-        <v>0.038272740816726714</v>
+        <v>0.027014138661656695</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018014069471242067</v>
+        <v>-0.018014138813995828</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004318215686155</v>
+        <v>0.018004317394058944</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090043183763643952</v>
+        <v>-0.0090043175465623904</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999998391405711</v>
+        <v>0.008999999847353557</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093930374714922493</v>
+        <v>-0.11748442416330107</v>
       </c>
       <c r="B22" s="0">
-        <v>0.09362269232690501</v>
+        <v>0.11706984637147322</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084622692486307827</v>
+        <v>-0.084625995619954431</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084124567971077369</v>
+        <v>0.084125246721977298</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042124568211944435</v>
+        <v>-0.042125246937942507</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999757779349</v>
+        <v>0.041999999782953878</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.098780731185865278</v>
+        <v>-0.087124704565987088</v>
       </c>
       <c r="B25" s="0">
-        <v>0.098643621882214205</v>
+        <v>0.087019074883723846</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.092643622039425111</v>
+        <v>-0.081019075037449539</v>
       </c>
       <c r="B26" s="0">
-        <v>0.092474038707212713</v>
+        <v>0.080890911348472372</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.086474038865372194</v>
+        <v>-0.074890911502912161</v>
       </c>
       <c r="B27" s="0">
-        <v>0.085920261330087122</v>
+        <v>0.074481302412336525</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.079920261491883693</v>
+        <v>-0.068481302569525226</v>
       </c>
       <c r="B28" s="0">
-        <v>0.079557226873265385</v>
+        <v>0.068219463514950895</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.067557227051988633</v>
+        <v>-0.056219463684966442</v>
       </c>
       <c r="B29" s="0">
-        <v>0.067396698022623269</v>
+        <v>0.056110580580451597</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.04866098959127596</v>
+        <v>-0.03611058076598761</v>
       </c>
       <c r="B30" s="0">
-        <v>0.048402383471028099</v>
+        <v>0.035845768871807682</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.033402383660153134</v>
+        <v>-0.020845769049397944</v>
       </c>
       <c r="B31" s="0">
-        <v>0.033333085145503816</v>
+        <v>0.020763062680261513</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.012333085349331085</v>
+        <v>-0.006001016956275862</v>
       </c>
       <c r="B32" s="0">
-        <v>0.012254597225062724</v>
+        <v>0.0059999998386244258</v>
       </c>
     </row>
   </sheetData>
